--- a/doc/Risikoanalyse.xlsx
+++ b/doc/Risikoanalyse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
@@ -64,8 +64,7 @@
 Hardware nicht umgesetzt werden</t>
   </si>
   <si>
-    <t xml:space="preserve">Anpassung der Projektumsetzung / des Projektzieles / 
-der Hardware</t>
+    <t xml:space="preserve">Anpassung der Projektumsetzung / des Projektzieles / der Hardware</t>
   </si>
   <si>
     <t xml:space="preserve">TTN löst sich auf</t>
@@ -90,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -112,6 +111,87 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -122,15 +202,57 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -139,28 +261,29 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,41 +307,169 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -227,238 +478,135 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="55.2558139534884"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.8279069767442"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="10.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="3" s="4" customFormat="true" ht="21.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="6" customFormat="true" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="6" customFormat="true" ht="15.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-    </row>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -473,18 +621,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.83"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -499,18 +647,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.83"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
